--- a/data/resource/resourceEncoded.xlsx
+++ b/data/resource/resourceEncoded.xlsx
@@ -532,10 +532,15 @@
   <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="31.33203125"/>
+    <col customWidth="1" max="2" min="2" width="15.6640625"/>
+    <col customWidth="1" max="6" min="6" width="28.5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
